--- a/flows/IEI_fund_flow_data.xlsx
+++ b/flows/IEI_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4320"/>
+  <dimension ref="A1:B4328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43635,6 +43635,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4321">
+      <c r="A4321" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4321" t="n">
+        <v>46.15988</v>
+      </c>
+    </row>
+    <row r="4322">
+      <c r="A4322" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4322" t="n">
+        <v>-11.55</v>
+      </c>
+    </row>
+    <row r="4323">
+      <c r="A4323" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4323" t="n">
+        <v>11.56703</v>
+      </c>
+    </row>
+    <row r="4324">
+      <c r="A4324" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4324" t="n">
+        <v>-23.10002</v>
+      </c>
+    </row>
+    <row r="4325">
+      <c r="A4325" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4326">
+      <c r="A4326" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4326" t="n">
+        <v>11.59756</v>
+      </c>
+    </row>
+    <row r="4327">
+      <c r="A4327" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4328">
+      <c r="A4328" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4328" t="n">
+        <v>11.62939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
